--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H2">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.32054952176139</v>
+        <v>124.722578</v>
       </c>
       <c r="N2">
-        <v>81.32054952176139</v>
+        <v>374.167734</v>
       </c>
       <c r="O2">
-        <v>0.9677838600975293</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="P2">
-        <v>0.9677838600975293</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="Q2">
-        <v>4314.521338552565</v>
+        <v>22345.05083053684</v>
       </c>
       <c r="R2">
-        <v>4314.521338552565</v>
+        <v>201105.4574748315</v>
       </c>
       <c r="S2">
-        <v>0.1323215560466155</v>
+        <v>0.3387317021459968</v>
       </c>
       <c r="T2">
-        <v>0.1323215560466155</v>
+        <v>0.3387317021459968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H3">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.70704473215213</v>
+        <v>0.134712</v>
       </c>
       <c r="N3">
-        <v>2.70704473215213</v>
+        <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.0322161399024708</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="P3">
-        <v>0.0322161399024708</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="Q3">
-        <v>143.624241719631</v>
+        <v>24.134735953608</v>
       </c>
       <c r="R3">
-        <v>143.624241719631</v>
+        <v>217.212623582472</v>
       </c>
       <c r="S3">
-        <v>0.004404795262116481</v>
+        <v>0.0003658617853416366</v>
       </c>
       <c r="T3">
-        <v>0.004404795262116481</v>
+        <v>0.0003658617853416365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>238.374216152697</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H4">
-        <v>238.374216152697</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I4">
-        <v>0.614298119377678</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J4">
-        <v>0.614298119377678</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.32054952176139</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>81.32054952176139</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.9677838600975293</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="P4">
-        <v>0.9677838600975293</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="Q4">
-        <v>19384.72224935645</v>
+        <v>508.1957738488439</v>
       </c>
       <c r="R4">
-        <v>19384.72224935645</v>
+        <v>4573.761964639595</v>
       </c>
       <c r="S4">
-        <v>0.594507805221982</v>
+        <v>0.007703809707336667</v>
       </c>
       <c r="T4">
-        <v>0.594507805221982</v>
+        <v>0.007703809707336666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H5">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.70704473215213</v>
+        <v>124.722578</v>
       </c>
       <c r="N5">
-        <v>2.70704473215213</v>
+        <v>374.167734</v>
       </c>
       <c r="O5">
-        <v>0.0322161399024708</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="P5">
-        <v>0.0322161399024708</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="Q5">
-        <v>645.2896661170515</v>
+        <v>29909.3886703419</v>
       </c>
       <c r="R5">
-        <v>645.2896661170515</v>
+        <v>269184.498033077</v>
       </c>
       <c r="S5">
-        <v>0.01979031415569598</v>
+        <v>0.4534005409647887</v>
       </c>
       <c r="T5">
-        <v>0.01979031415569598</v>
+        <v>0.4534005409647887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.6132644219299</v>
+        <v>239.807332</v>
       </c>
       <c r="H6">
-        <v>96.6132644219299</v>
+        <v>719.421996</v>
       </c>
       <c r="I6">
-        <v>0.24897552931359</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J6">
-        <v>0.24897552931359</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>81.32054952176139</v>
+        <v>0.134712</v>
       </c>
       <c r="N6">
-        <v>81.32054952176139</v>
+        <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.9677838600975293</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="P6">
-        <v>0.9677838600975293</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="Q6">
-        <v>7856.643753882578</v>
+        <v>32.304925308384</v>
       </c>
       <c r="R6">
-        <v>7856.643753882578</v>
+        <v>290.744327775456</v>
       </c>
       <c r="S6">
-        <v>0.2409544988289317</v>
+        <v>0.0004897148106932861</v>
       </c>
       <c r="T6">
-        <v>0.2409544988289317</v>
+        <v>0.0004897148106932861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>96.6132644219299</v>
+        <v>239.807332</v>
       </c>
       <c r="H7">
-        <v>96.6132644219299</v>
+        <v>719.421996</v>
       </c>
       <c r="I7">
-        <v>0.24897552931359</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J7">
-        <v>0.24897552931359</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.70704473215213</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>2.70704473215213</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.0322161399024708</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="P7">
-        <v>0.0322161399024708</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="Q7">
-        <v>261.5364285094061</v>
+        <v>680.2322821256734</v>
       </c>
       <c r="R7">
-        <v>261.5364285094061</v>
+        <v>6122.09053913106</v>
       </c>
       <c r="S7">
-        <v>0.008021030484658338</v>
+        <v>0.01031173482336399</v>
       </c>
       <c r="T7">
-        <v>0.008021030484658338</v>
+        <v>0.01031173482336399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>97.63589966666666</v>
+      </c>
+      <c r="H8">
+        <v>292.907699</v>
+      </c>
+      <c r="I8">
+        <v>0.1889966357624789</v>
+      </c>
+      <c r="J8">
+        <v>0.1889966357624789</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>124.722578</v>
+      </c>
+      <c r="N8">
+        <v>374.167734</v>
+      </c>
+      <c r="O8">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="P8">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="Q8">
+        <v>12177.40111177601</v>
+      </c>
+      <c r="R8">
+        <v>109596.6100059841</v>
+      </c>
+      <c r="S8">
+        <v>0.1845989001139068</v>
+      </c>
+      <c r="T8">
+        <v>0.1845989001139068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>97.63589966666666</v>
+      </c>
+      <c r="H9">
+        <v>292.907699</v>
+      </c>
+      <c r="I9">
+        <v>0.1889966357624789</v>
+      </c>
+      <c r="J9">
+        <v>0.1889966357624789</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.134712</v>
+      </c>
+      <c r="N9">
+        <v>0.404136</v>
+      </c>
+      <c r="O9">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="P9">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="Q9">
+        <v>13.152727315896</v>
+      </c>
+      <c r="R9">
+        <v>118.374545843064</v>
+      </c>
+      <c r="S9">
+        <v>0.0001993840043311534</v>
+      </c>
+      <c r="T9">
+        <v>0.0001993840043311534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>97.63589966666666</v>
+      </c>
+      <c r="H10">
+        <v>292.907699</v>
+      </c>
+      <c r="I10">
+        <v>0.1889966357624789</v>
+      </c>
+      <c r="J10">
+        <v>0.1889966357624789</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.836578333333333</v>
+      </c>
+      <c r="N10">
+        <v>8.509734999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="P10">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="Q10">
+        <v>276.9518775499739</v>
+      </c>
+      <c r="R10">
+        <v>2492.566897949765</v>
+      </c>
+      <c r="S10">
+        <v>0.004198351644240966</v>
+      </c>
+      <c r="T10">
+        <v>0.004198351644240966</v>
       </c>
     </row>
   </sheetData>
